--- a/ope.ed.gov/2013/arrests-noncampus-virginia-colleges-and-universities-crime-2013.xlsx
+++ b/ope.ed.gov/2013/arrests-noncampus-virginia-colleges-and-universities-crime-2013.xlsx
@@ -13,16 +13,13 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <si>
-    <t>Arrests - Noncampus</t>
-  </si>
-  <si>
-    <t>Survey year</t>
-  </si>
-  <si>
-    <t>Unitid</t>
-  </si>
-  <si>
-    <t>Institution name</t>
+    <t>Survey Year</t>
+  </si>
+  <si>
+    <t>UnitID</t>
+  </si>
+  <si>
+    <t>Institution Name</t>
   </si>
   <si>
     <t>Campus ID</t>
@@ -34,13 +31,13 @@
     <t>Institution Size</t>
   </si>
   <si>
-    <t>Illegal weapons possession</t>
-  </si>
-  <si>
-    <t>Drug law violations</t>
-  </si>
-  <si>
-    <t>Liquor law violations</t>
+    <t>Illegal Weapons Possession</t>
+  </si>
+  <si>
+    <t>Drug Law Violations</t>
+  </si>
+  <si>
+    <t>Liquor Law Violations</t>
   </si>
   <si>
     <t>Advanced Technology Institute</t>
@@ -589,34 +586,58 @@
       <c t="s" s="1" r="A1">
         <v>0</v>
       </c>
+      <c t="s" s="1" r="B1">
+        <v>1</v>
+      </c>
+      <c t="s" s="1" r="C1">
+        <v>2</v>
+      </c>
+      <c t="s" s="1" r="D1">
+        <v>3</v>
+      </c>
+      <c t="s" s="1" r="E1">
+        <v>4</v>
+      </c>
+      <c t="s" s="1" r="F1">
+        <v>5</v>
+      </c>
+      <c t="s" s="1" r="G1">
+        <v>6</v>
+      </c>
+      <c t="s" s="1" r="H1">
+        <v>7</v>
+      </c>
+      <c t="s" s="1" r="I1">
+        <v>8</v>
+      </c>
     </row>
     <row r="2">
-      <c t="s" s="1" r="A2">
-        <v>1</v>
-      </c>
-      <c t="s" s="1" r="B2">
-        <v>2</v>
+      <c s="1" r="A2">
+        <v>2013.0</v>
+      </c>
+      <c s="1" r="B2">
+        <v>231411.0</v>
       </c>
       <c t="s" s="1" r="C2">
-        <v>3</v>
-      </c>
-      <c t="s" s="1" r="D2">
-        <v>4</v>
+        <v>9</v>
+      </c>
+      <c s="1" r="D2">
+        <v>1.0</v>
       </c>
       <c t="s" s="1" r="E2">
-        <v>5</v>
-      </c>
-      <c t="s" s="1" r="F2">
-        <v>6</v>
-      </c>
-      <c t="s" s="1" r="G2">
-        <v>7</v>
-      </c>
-      <c t="s" s="1" r="H2">
-        <v>8</v>
-      </c>
-      <c t="s" s="1" r="I2">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c s="1" r="F2">
+        <v>824.0</v>
+      </c>
+      <c s="1" r="G2">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="H2">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="I2">
+        <v>0.0</v>
       </c>
     </row>
     <row r="3">
@@ -624,19 +645,19 @@
         <v>2013.0</v>
       </c>
       <c s="1" r="B3">
-        <v>231411.0</v>
+        <v>432348.0</v>
       </c>
       <c t="s" s="1" r="C3">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c s="1" r="D3">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E3">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c s="1" r="F3">
-        <v>824.0</v>
+        <v>219.0</v>
       </c>
       <c s="1" r="G3">
         <v>0.0</v>
@@ -653,19 +674,19 @@
         <v>2013.0</v>
       </c>
       <c s="1" r="B4">
-        <v>432348.0</v>
+        <v>231420.0</v>
       </c>
       <c t="s" s="1" r="C4">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c s="1" r="D4">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E4">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c s="1" r="F4">
-        <v>219.0</v>
+        <v>906.0</v>
       </c>
       <c s="1" r="G4">
         <v>0.0</v>
@@ -682,19 +703,19 @@
         <v>2013.0</v>
       </c>
       <c s="1" r="B5">
-        <v>231420.0</v>
+        <v>449931.0</v>
       </c>
       <c t="s" s="1" r="C5">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c s="1" r="D5">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E5">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c s="1" r="F5">
-        <v>906.0</v>
+        <v>1221.0</v>
       </c>
       <c s="1" r="G5">
         <v>0.0</v>
@@ -714,13 +735,13 @@
         <v>449931.0</v>
       </c>
       <c t="s" s="1" r="C6">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c s="1" r="D6">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c t="s" s="1" r="E6">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c s="1" r="F6">
         <v>1221.0</v>
@@ -743,13 +764,13 @@
         <v>449931.0</v>
       </c>
       <c t="s" s="1" r="C7">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c s="1" r="D7">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
       <c t="s" s="1" r="E7">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c s="1" r="F7">
         <v>1221.0</v>
@@ -769,19 +790,19 @@
         <v>2013.0</v>
       </c>
       <c s="1" r="B8">
-        <v>449931.0</v>
+        <v>231554.0</v>
       </c>
       <c t="s" s="1" r="C8">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c s="1" r="D8">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
       <c t="s" s="1" r="E8">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c s="1" r="F8">
-        <v>1221.0</v>
+        <v>842.0</v>
       </c>
       <c s="1" r="G8">
         <v>0.0</v>
@@ -798,19 +819,19 @@
         <v>2013.0</v>
       </c>
       <c s="1" r="B9">
-        <v>231554.0</v>
+        <v>231581.0</v>
       </c>
       <c t="s" s="1" r="C9">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c s="1" r="D9">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E9">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c s="1" r="F9">
-        <v>842.0</v>
+        <v>1848.0</v>
       </c>
       <c s="1" r="G9">
         <v>0.0</v>
@@ -827,19 +848,19 @@
         <v>2013.0</v>
       </c>
       <c s="1" r="B10">
-        <v>231581.0</v>
+        <v>231785.0</v>
       </c>
       <c t="s" s="1" r="C10">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c s="1" r="D10">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E10">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c s="1" r="F10">
-        <v>1848.0</v>
+        <v>728.0</v>
       </c>
       <c s="1" r="G10">
         <v>0.0</v>
@@ -856,19 +877,19 @@
         <v>2013.0</v>
       </c>
       <c s="1" r="B11">
-        <v>231785.0</v>
+        <v>231712.0</v>
       </c>
       <c t="s" s="1" r="C11">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c s="1" r="D11">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E11">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c s="1" r="F11">
-        <v>728.0</v>
+        <v>5232.0</v>
       </c>
       <c s="1" r="G11">
         <v>0.0</v>
@@ -885,19 +906,19 @@
         <v>2013.0</v>
       </c>
       <c s="1" r="B12">
-        <v>231712.0</v>
+        <v>231624.0</v>
       </c>
       <c t="s" s="1" r="C12">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c s="1" r="D12">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E12">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c s="1" r="F12">
-        <v>5232.0</v>
+        <v>8376.0</v>
       </c>
       <c s="1" r="G12">
         <v>0.0</v>
@@ -917,13 +938,13 @@
         <v>231624.0</v>
       </c>
       <c t="s" s="1" r="C13">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c s="1" r="D13">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c t="s" s="1" r="E13">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c s="1" r="F13">
         <v>8376.0</v>
@@ -932,7 +953,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="H13">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c s="1" r="I13">
         <v>0.0</v>
@@ -943,25 +964,25 @@
         <v>2013.0</v>
       </c>
       <c s="1" r="B14">
-        <v>231624.0</v>
+        <v>231873.0</v>
       </c>
       <c t="s" s="1" r="C14">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c s="1" r="D14">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c t="s" s="1" r="E14">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c s="1" r="F14">
-        <v>8376.0</v>
+        <v>1312.0</v>
       </c>
       <c s="1" r="G14">
         <v>0.0</v>
       </c>
       <c s="1" r="H14">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="I14">
         <v>0.0</v>
@@ -972,19 +993,19 @@
         <v>2013.0</v>
       </c>
       <c s="1" r="B15">
-        <v>231873.0</v>
+        <v>231882.0</v>
       </c>
       <c t="s" s="1" r="C15">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c s="1" r="D15">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E15">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c s="1" r="F15">
-        <v>1312.0</v>
+        <v>4280.0</v>
       </c>
       <c s="1" r="G15">
         <v>0.0</v>
@@ -1001,19 +1022,19 @@
         <v>2013.0</v>
       </c>
       <c s="1" r="B16">
-        <v>231882.0</v>
+        <v>232043.0</v>
       </c>
       <c t="s" s="1" r="C16">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c s="1" r="D16">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E16">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c s="1" r="F16">
-        <v>4280.0</v>
+        <v>1640.0</v>
       </c>
       <c s="1" r="G16">
         <v>0.0</v>
@@ -1030,19 +1051,19 @@
         <v>2013.0</v>
       </c>
       <c s="1" r="B17">
-        <v>232043.0</v>
+        <v>231970.0</v>
       </c>
       <c t="s" s="1" r="C17">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c s="1" r="D17">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E17">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c s="1" r="F17">
-        <v>1640.0</v>
+        <v>1017.0</v>
       </c>
       <c s="1" r="G17">
         <v>0.0</v>
@@ -1059,19 +1080,19 @@
         <v>2013.0</v>
       </c>
       <c s="1" r="B18">
-        <v>231970.0</v>
+        <v>248934.0</v>
       </c>
       <c t="s" s="1" r="C18">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c s="1" r="D18">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E18">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c s="1" r="F18">
-        <v>1017.0</v>
+        <v>10845.0</v>
       </c>
       <c s="1" r="G18">
         <v>0.0</v>
@@ -1091,13 +1112,13 @@
         <v>248934.0</v>
       </c>
       <c t="s" s="1" r="C19">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c s="1" r="D19">
-        <v>1.0</v>
+        <v>12.0</v>
       </c>
       <c t="s" s="1" r="E19">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c s="1" r="F19">
         <v>10845.0</v>
@@ -1117,19 +1138,19 @@
         <v>2013.0</v>
       </c>
       <c s="1" r="B20">
-        <v>248934.0</v>
+        <v>442806.0</v>
       </c>
       <c t="s" s="1" r="C20">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c s="1" r="D20">
-        <v>12.0</v>
+        <v>1.0</v>
       </c>
       <c t="s" s="1" r="E20">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c s="1" r="F20">
-        <v>10845.0</v>
+        <v>1278.0</v>
       </c>
       <c s="1" r="G20">
         <v>0.0</v>
@@ -1149,13 +1170,13 @@
         <v>442806.0</v>
       </c>
       <c t="s" s="1" r="C21">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c s="1" r="D21">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c t="s" s="1" r="E21">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c s="1" r="F21">
         <v>1278.0</v>
@@ -1175,19 +1196,19 @@
         <v>2013.0</v>
       </c>
       <c s="1" r="B22">
-        <v>442806.0</v>
+        <v>232025.0</v>
       </c>
       <c t="s" s="1" r="C22">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c s="1" r="D22">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c t="s" s="1" r="E22">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c s="1" r="F22">
-        <v>1278.0</v>
+        <v>959.0</v>
       </c>
       <c s="1" r="G22">
         <v>0.0</v>
@@ -1204,19 +1225,19 @@
         <v>2013.0</v>
       </c>
       <c s="1" r="B23">
-        <v>232025.0</v>
+        <v>232089.0</v>
       </c>
       <c t="s" s="1" r="C23">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c s="1" r="D23">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E23">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c s="1" r="F23">
-        <v>959.0</v>
+        <v>1512.0</v>
       </c>
       <c s="1" r="G23">
         <v>0.0</v>
@@ -1233,19 +1254,19 @@
         <v>2013.0</v>
       </c>
       <c s="1" r="B24">
-        <v>232089.0</v>
+        <v>232186.0</v>
       </c>
       <c t="s" s="1" r="C24">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c s="1" r="D24">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E24">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c s="1" r="F24">
-        <v>1512.0</v>
+        <v>33917.0</v>
       </c>
       <c s="1" r="G24">
         <v>0.0</v>
@@ -1254,7 +1275,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="I24">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="25">
@@ -1262,19 +1283,19 @@
         <v>2013.0</v>
       </c>
       <c s="1" r="B25">
-        <v>232186.0</v>
+        <v>232256.0</v>
       </c>
       <c t="s" s="1" r="C25">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c s="1" r="D25">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E25">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c s="1" r="F25">
-        <v>33917.0</v>
+        <v>1070.0</v>
       </c>
       <c s="1" r="G25">
         <v>0.0</v>
@@ -1283,7 +1304,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="I25">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="26">
@@ -1291,28 +1312,28 @@
         <v>2013.0</v>
       </c>
       <c s="1" r="B26">
-        <v>232256.0</v>
+        <v>232265.0</v>
       </c>
       <c t="s" s="1" r="C26">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c s="1" r="D26">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E26">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c s="1" r="F26">
-        <v>1070.0</v>
+        <v>4622.0</v>
       </c>
       <c s="1" r="G26">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c s="1" r="H26">
-        <v>0.0</v>
+        <v>4.0</v>
       </c>
       <c s="1" r="I26">
-        <v>2.0</v>
+        <v>9.0</v>
       </c>
     </row>
     <row r="27">
@@ -1320,28 +1341,28 @@
         <v>2013.0</v>
       </c>
       <c s="1" r="B27">
-        <v>232265.0</v>
+        <v>232308.0</v>
       </c>
       <c t="s" s="1" r="C27">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c s="1" r="D27">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E27">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c s="1" r="F27">
-        <v>4622.0</v>
+        <v>750.0</v>
       </c>
       <c s="1" r="G27">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="H27">
-        <v>4.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="I27">
-        <v>9.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="28">
@@ -1349,19 +1370,19 @@
         <v>2013.0</v>
       </c>
       <c s="1" r="B28">
-        <v>232308.0</v>
+        <v>232423.0</v>
       </c>
       <c t="s" s="1" r="C28">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c s="1" r="D28">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E28">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c s="1" r="F28">
-        <v>750.0</v>
+        <v>20181.0</v>
       </c>
       <c s="1" r="G28">
         <v>0.0</v>
@@ -1378,19 +1399,19 @@
         <v>2013.0</v>
       </c>
       <c s="1" r="B29">
-        <v>232423.0</v>
+        <v>231837.0</v>
       </c>
       <c t="s" s="1" r="C29">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c s="1" r="D29">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E29">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c s="1" r="F29">
-        <v>20181.0</v>
+        <v>1039.0</v>
       </c>
       <c s="1" r="G29">
         <v>0.0</v>
@@ -1407,22 +1428,22 @@
         <v>2013.0</v>
       </c>
       <c s="1" r="B30">
-        <v>231837.0</v>
+        <v>232557.0</v>
       </c>
       <c t="s" s="1" r="C30">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c s="1" r="D30">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E30">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c s="1" r="F30">
-        <v>1039.0</v>
+        <v>77338.0</v>
       </c>
       <c s="1" r="G30">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c s="1" r="H30">
         <v>0.0</v>
@@ -1436,28 +1457,28 @@
         <v>2013.0</v>
       </c>
       <c s="1" r="B31">
-        <v>232557.0</v>
+        <v>232566.0</v>
       </c>
       <c t="s" s="1" r="C31">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c s="1" r="D31">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E31">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c s="1" r="F31">
-        <v>77338.0</v>
+        <v>4960.0</v>
       </c>
       <c s="1" r="G31">
         <v>1.0</v>
       </c>
       <c s="1" r="H31">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c s="1" r="I31">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="32">
@@ -1468,25 +1489,25 @@
         <v>232566.0</v>
       </c>
       <c t="s" s="1" r="C32">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c s="1" r="D32">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c t="s" s="1" r="E32">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c s="1" r="F32">
         <v>4960.0</v>
       </c>
       <c s="1" r="G32">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="H32">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="I32">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="33">
@@ -1497,13 +1518,13 @@
         <v>232566.0</v>
       </c>
       <c t="s" s="1" r="C33">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c s="1" r="D33">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c t="s" s="1" r="E33">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c s="1" r="F33">
         <v>4960.0</v>
@@ -1523,19 +1544,19 @@
         <v>2013.0</v>
       </c>
       <c s="1" r="B34">
-        <v>232566.0</v>
+        <v>232609.0</v>
       </c>
       <c t="s" s="1" r="C34">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c s="1" r="D34">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c t="s" s="1" r="E34">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c s="1" r="F34">
-        <v>4960.0</v>
+        <v>2713.0</v>
       </c>
       <c s="1" r="G34">
         <v>0.0</v>
@@ -1552,19 +1573,19 @@
         <v>2013.0</v>
       </c>
       <c s="1" r="B35">
-        <v>232609.0</v>
+        <v>232706.0</v>
       </c>
       <c t="s" s="1" r="C35">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c s="1" r="D35">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E35">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c s="1" r="F35">
-        <v>2713.0</v>
+        <v>3486.0</v>
       </c>
       <c s="1" r="G35">
         <v>0.0</v>
@@ -1581,25 +1602,25 @@
         <v>2013.0</v>
       </c>
       <c s="1" r="B36">
-        <v>232706.0</v>
+        <v>232788.0</v>
       </c>
       <c t="s" s="1" r="C36">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c s="1" r="D36">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E36">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c s="1" r="F36">
-        <v>3486.0</v>
+        <v>2924.0</v>
       </c>
       <c s="1" r="G36">
         <v>0.0</v>
       </c>
       <c s="1" r="H36">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c s="1" r="I36">
         <v>0.0</v>
@@ -1610,28 +1631,28 @@
         <v>2013.0</v>
       </c>
       <c s="1" r="B37">
-        <v>232788.0</v>
+        <v>232946.0</v>
       </c>
       <c t="s" s="1" r="C37">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c s="1" r="D37">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E37">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c s="1" r="F37">
-        <v>2924.0</v>
+        <v>51803.0</v>
       </c>
       <c s="1" r="G37">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c s="1" r="H37">
-        <v>1.0</v>
+        <v>29.0</v>
       </c>
       <c s="1" r="I37">
-        <v>0.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="38">
@@ -1642,25 +1663,25 @@
         <v>232946.0</v>
       </c>
       <c t="s" s="1" r="C38">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c s="1" r="D38">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c t="s" s="1" r="E38">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c s="1" r="F38">
         <v>51803.0</v>
       </c>
       <c s="1" r="G38">
-        <v>1.0</v>
+        <v>8.0</v>
       </c>
       <c s="1" r="H38">
-        <v>29.0</v>
+        <v>27.0</v>
       </c>
       <c s="1" r="I38">
-        <v>26.0</v>
+        <v>8.0</v>
       </c>
     </row>
     <row r="39">
@@ -1671,25 +1692,25 @@
         <v>232946.0</v>
       </c>
       <c t="s" s="1" r="C39">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c s="1" r="D39">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c t="s" s="1" r="E39">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c s="1" r="F39">
         <v>51803.0</v>
       </c>
       <c s="1" r="G39">
-        <v>8.0</v>
+        <v>1.0</v>
       </c>
       <c s="1" r="H39">
-        <v>27.0</v>
+        <v>19.0</v>
       </c>
       <c s="1" r="I39">
-        <v>8.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="40">
@@ -1700,25 +1721,25 @@
         <v>232946.0</v>
       </c>
       <c t="s" s="1" r="C40">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c s="1" r="D40">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c t="s" s="1" r="E40">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c s="1" r="F40">
         <v>51803.0</v>
       </c>
       <c s="1" r="G40">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="H40">
-        <v>19.0</v>
+        <v>20.0</v>
       </c>
       <c s="1" r="I40">
-        <v>6.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="41">
@@ -1729,25 +1750,25 @@
         <v>232946.0</v>
       </c>
       <c t="s" s="1" r="C41">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c s="1" r="D41">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c t="s" s="1" r="E41">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c s="1" r="F41">
         <v>51803.0</v>
       </c>
       <c s="1" r="G41">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c s="1" r="H41">
-        <v>20.0</v>
+        <v>6.0</v>
       </c>
       <c s="1" r="I41">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="42">
@@ -1758,22 +1779,22 @@
         <v>232946.0</v>
       </c>
       <c t="s" s="1" r="C42">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c s="1" r="D42">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c t="s" s="1" r="E42">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c s="1" r="F42">
         <v>51803.0</v>
       </c>
       <c s="1" r="G42">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="H42">
-        <v>6.0</v>
+        <v>1.0</v>
       </c>
       <c s="1" r="I42">
         <v>0.0</v>
@@ -1787,13 +1808,13 @@
         <v>232946.0</v>
       </c>
       <c t="s" s="1" r="C43">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c s="1" r="D43">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
       <c t="s" s="1" r="E43">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c s="1" r="F43">
         <v>51803.0</v>
@@ -1802,7 +1823,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="H43">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="I43">
         <v>0.0</v>
@@ -1816,13 +1837,13 @@
         <v>232946.0</v>
       </c>
       <c t="s" s="1" r="C44">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c s="1" r="D44">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c t="s" s="1" r="E44">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c s="1" r="F44">
         <v>51803.0</v>
@@ -1845,13 +1866,13 @@
         <v>232946.0</v>
       </c>
       <c t="s" s="1" r="C45">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c s="1" r="D45">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c t="s" s="1" r="E45">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c s="1" r="F45">
         <v>51803.0</v>
@@ -1874,13 +1895,13 @@
         <v>232946.0</v>
       </c>
       <c t="s" s="1" r="C46">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c s="1" r="D46">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c t="s" s="1" r="E46">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c s="1" r="F46">
         <v>51803.0</v>
@@ -1903,13 +1924,13 @@
         <v>232946.0</v>
       </c>
       <c t="s" s="1" r="C47">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c s="1" r="D47">
-        <v>10.0</v>
+        <v>11.0</v>
       </c>
       <c t="s" s="1" r="E47">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c s="1" r="F47">
         <v>51803.0</v>
@@ -1932,13 +1953,13 @@
         <v>232946.0</v>
       </c>
       <c t="s" s="1" r="C48">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c s="1" r="D48">
-        <v>11.0</v>
+        <v>12.0</v>
       </c>
       <c t="s" s="1" r="E48">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c s="1" r="F48">
         <v>51803.0</v>
@@ -1961,13 +1982,13 @@
         <v>232946.0</v>
       </c>
       <c t="s" s="1" r="C49">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c s="1" r="D49">
-        <v>12.0</v>
+        <v>13.0</v>
       </c>
       <c t="s" s="1" r="E49">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c s="1" r="F49">
         <v>51803.0</v>
@@ -1990,13 +2011,13 @@
         <v>232946.0</v>
       </c>
       <c t="s" s="1" r="C50">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c s="1" r="D50">
-        <v>13.0</v>
+        <v>14.0</v>
       </c>
       <c t="s" s="1" r="E50">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c s="1" r="F50">
         <v>51803.0</v>
@@ -2016,19 +2037,19 @@
         <v>2013.0</v>
       </c>
       <c s="1" r="B51">
-        <v>232946.0</v>
+        <v>232982.0</v>
       </c>
       <c t="s" s="1" r="C51">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c s="1" r="D51">
-        <v>14.0</v>
+        <v>1.0</v>
       </c>
       <c t="s" s="1" r="E51">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c s="1" r="F51">
-        <v>51803.0</v>
+        <v>24828.0</v>
       </c>
       <c s="1" r="G51">
         <v>0.0</v>
@@ -2045,19 +2066,19 @@
         <v>2013.0</v>
       </c>
       <c s="1" r="B52">
-        <v>232982.0</v>
+        <v>233019.0</v>
       </c>
       <c t="s" s="1" r="C52">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c s="1" r="D52">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E52">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c s="1" r="F52">
-        <v>24828.0</v>
+        <v>3163.0</v>
       </c>
       <c s="1" r="G52">
         <v>0.0</v>
@@ -2074,19 +2095,19 @@
         <v>2013.0</v>
       </c>
       <c s="1" r="B53">
-        <v>233019.0</v>
+        <v>233116.0</v>
       </c>
       <c t="s" s="1" r="C53">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c s="1" r="D53">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E53">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c s="1" r="F53">
-        <v>3163.0</v>
+        <v>5630.0</v>
       </c>
       <c s="1" r="G53">
         <v>0.0</v>
@@ -2106,13 +2127,13 @@
         <v>233116.0</v>
       </c>
       <c t="s" s="1" r="C54">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c s="1" r="D54">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c t="s" s="1" r="E54">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c s="1" r="F54">
         <v>5630.0</v>
@@ -2132,19 +2153,19 @@
         <v>2013.0</v>
       </c>
       <c s="1" r="B55">
-        <v>233116.0</v>
+        <v>233277.0</v>
       </c>
       <c t="s" s="1" r="C55">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c s="1" r="D55">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c t="s" s="1" r="E55">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c s="1" r="F55">
-        <v>5630.0</v>
+        <v>9928.0</v>
       </c>
       <c s="1" r="G55">
         <v>0.0</v>
@@ -2161,19 +2182,19 @@
         <v>2013.0</v>
       </c>
       <c s="1" r="B56">
-        <v>233277.0</v>
+        <v>233310.0</v>
       </c>
       <c t="s" s="1" r="C56">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c s="1" r="D56">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E56">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c s="1" r="F56">
-        <v>9928.0</v>
+        <v>3555.0</v>
       </c>
       <c s="1" r="G56">
         <v>0.0</v>
@@ -2190,19 +2211,19 @@
         <v>2013.0</v>
       </c>
       <c s="1" r="B57">
-        <v>233310.0</v>
+        <v>233541.0</v>
       </c>
       <c t="s" s="1" r="C57">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c s="1" r="D57">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E57">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c s="1" r="F57">
-        <v>3555.0</v>
+        <v>4003.0</v>
       </c>
       <c s="1" r="G57">
         <v>0.0</v>
@@ -2219,19 +2240,19 @@
         <v>2013.0</v>
       </c>
       <c s="1" r="B58">
-        <v>233541.0</v>
+        <v>233611.0</v>
       </c>
       <c t="s" s="1" r="C58">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c s="1" r="D58">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E58">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c s="1" r="F58">
-        <v>4003.0</v>
+        <v>662.0</v>
       </c>
       <c s="1" r="G58">
         <v>0.0</v>
@@ -2248,19 +2269,19 @@
         <v>2013.0</v>
       </c>
       <c s="1" r="B59">
-        <v>233611.0</v>
+        <v>233639.0</v>
       </c>
       <c t="s" s="1" r="C59">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c s="1" r="D59">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E59">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c s="1" r="F59">
-        <v>662.0</v>
+        <v>5784.0</v>
       </c>
       <c s="1" r="G59">
         <v>0.0</v>
@@ -2277,19 +2298,19 @@
         <v>2013.0</v>
       </c>
       <c s="1" r="B60">
-        <v>233639.0</v>
+        <v>233648.0</v>
       </c>
       <c t="s" s="1" r="C60">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c s="1" r="D60">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E60">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c s="1" r="F60">
-        <v>5784.0</v>
+        <v>2630.0</v>
       </c>
       <c s="1" r="G60">
         <v>0.0</v>
@@ -2306,19 +2327,19 @@
         <v>2013.0</v>
       </c>
       <c s="1" r="B61">
-        <v>233648.0</v>
+        <v>233718.0</v>
       </c>
       <c t="s" s="1" r="C61">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c s="1" r="D61">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E61">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c s="1" r="F61">
-        <v>2630.0</v>
+        <v>710.0</v>
       </c>
       <c s="1" r="G61">
         <v>0.0</v>
@@ -2335,19 +2356,19 @@
         <v>2013.0</v>
       </c>
       <c s="1" r="B62">
-        <v>233718.0</v>
+        <v>440341.0</v>
       </c>
       <c t="s" s="1" r="C62">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c s="1" r="D62">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E62">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c s="1" r="F62">
-        <v>710.0</v>
+        <v>1499.0</v>
       </c>
       <c s="1" r="G62">
         <v>0.0</v>
@@ -2364,19 +2385,19 @@
         <v>2013.0</v>
       </c>
       <c s="1" r="B63">
-        <v>440341.0</v>
+        <v>233897.0</v>
       </c>
       <c t="s" s="1" r="C63">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c s="1" r="D63">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E63">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c s="1" r="F63">
-        <v>1499.0</v>
+        <v>2291.0</v>
       </c>
       <c s="1" r="G63">
         <v>0.0</v>
@@ -2393,19 +2414,19 @@
         <v>2013.0</v>
       </c>
       <c s="1" r="B64">
-        <v>233897.0</v>
+        <v>233754.0</v>
       </c>
       <c t="s" s="1" r="C64">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c s="1" r="D64">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E64">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c s="1" r="F64">
-        <v>2291.0</v>
+        <v>11033.0</v>
       </c>
       <c s="1" r="G64">
         <v>0.0</v>
@@ -2422,19 +2443,19 @@
         <v>2013.0</v>
       </c>
       <c s="1" r="B65">
-        <v>233754.0</v>
+        <v>233772.0</v>
       </c>
       <c t="s" s="1" r="C65">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c s="1" r="D65">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c t="s" s="1" r="E65">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c s="1" r="F65">
-        <v>11033.0</v>
+        <v>28999.0</v>
       </c>
       <c s="1" r="G65">
         <v>0.0</v>
@@ -2454,13 +2475,13 @@
         <v>233772.0</v>
       </c>
       <c t="s" s="1" r="C66">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c s="1" r="D66">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c t="s" s="1" r="E66">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c s="1" r="F66">
         <v>28999.0</v>
@@ -2480,19 +2501,19 @@
         <v>2013.0</v>
       </c>
       <c s="1" r="B67">
-        <v>233772.0</v>
+        <v>232681.0</v>
       </c>
       <c t="s" s="1" r="C67">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c s="1" r="D67">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
       <c t="s" s="1" r="E67">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c s="1" r="F67">
-        <v>28999.0</v>
+        <v>4831.0</v>
       </c>
       <c s="1" r="G67">
         <v>0.0</v>
@@ -2512,13 +2533,13 @@
         <v>232681.0</v>
       </c>
       <c t="s" s="1" r="C68">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c s="1" r="D68">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c t="s" s="1" r="E68">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c s="1" r="F68">
         <v>4831.0</v>
@@ -2538,19 +2559,19 @@
         <v>2013.0</v>
       </c>
       <c s="1" r="B69">
-        <v>232681.0</v>
+        <v>442189.0</v>
       </c>
       <c t="s" s="1" r="C69">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c s="1" r="D69">
         <v>2.0</v>
       </c>
       <c t="s" s="1" r="E69">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c s="1" r="F69">
-        <v>4831.0</v>
+        <v>865.0</v>
       </c>
       <c s="1" r="G69">
         <v>0.0</v>
@@ -2567,19 +2588,19 @@
         <v>2013.0</v>
       </c>
       <c s="1" r="B70">
-        <v>442189.0</v>
+        <v>446756.0</v>
       </c>
       <c t="s" s="1" r="C70">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c s="1" r="D70">
         <v>2.0</v>
       </c>
       <c t="s" s="1" r="E70">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c s="1" r="F70">
-        <v>865.0</v>
+        <v>706.0</v>
       </c>
       <c s="1" r="G70">
         <v>0.0</v>
@@ -2596,19 +2617,19 @@
         <v>2013.0</v>
       </c>
       <c s="1" r="B71">
-        <v>446756.0</v>
+        <v>233374.0</v>
       </c>
       <c t="s" s="1" r="C71">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c s="1" r="D71">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c t="s" s="1" r="E71">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c s="1" r="F71">
-        <v>706.0</v>
+        <v>4140.0</v>
       </c>
       <c s="1" r="G71">
         <v>0.0</v>
@@ -2625,28 +2646,28 @@
         <v>2013.0</v>
       </c>
       <c s="1" r="B72">
-        <v>233374.0</v>
+        <v>234076.0</v>
       </c>
       <c t="s" s="1" r="C72">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c s="1" r="D72">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E72">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c s="1" r="F72">
-        <v>4140.0</v>
+        <v>23464.0</v>
       </c>
       <c s="1" r="G72">
         <v>0.0</v>
       </c>
       <c s="1" r="H72">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c s="1" r="I72">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="73">
@@ -2654,28 +2675,28 @@
         <v>2013.0</v>
       </c>
       <c s="1" r="B73">
-        <v>234076.0</v>
+        <v>234030.0</v>
       </c>
       <c t="s" s="1" r="C73">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c s="1" r="D73">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E73">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c s="1" r="F73">
-        <v>23464.0</v>
+        <v>30974.0</v>
       </c>
       <c s="1" r="G73">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c s="1" r="H73">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="I73">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="74">
@@ -2686,19 +2707,19 @@
         <v>234030.0</v>
       </c>
       <c t="s" s="1" r="C74">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c s="1" r="D74">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c t="s" s="1" r="E74">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c s="1" r="F74">
         <v>30974.0</v>
       </c>
       <c s="1" r="G74">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="H74">
         <v>0.0</v>
@@ -2712,19 +2733,19 @@
         <v>2013.0</v>
       </c>
       <c s="1" r="B75">
-        <v>234030.0</v>
+        <v>234085.0</v>
       </c>
       <c t="s" s="1" r="C75">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c s="1" r="D75">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c t="s" s="1" r="E75">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c s="1" r="F75">
-        <v>30974.0</v>
+        <v>1675.0</v>
       </c>
       <c s="1" r="G75">
         <v>0.0</v>
@@ -2741,19 +2762,19 @@
         <v>2013.0</v>
       </c>
       <c s="1" r="B76">
-        <v>234085.0</v>
+        <v>233921.0</v>
       </c>
       <c t="s" s="1" r="C76">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c s="1" r="D76">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E76">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c s="1" r="F76">
-        <v>1675.0</v>
+        <v>31205.0</v>
       </c>
       <c s="1" r="G76">
         <v>0.0</v>
@@ -2770,19 +2791,19 @@
         <v>2013.0</v>
       </c>
       <c s="1" r="B77">
-        <v>233921.0</v>
+        <v>234137.0</v>
       </c>
       <c t="s" s="1" r="C77">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c s="1" r="D77">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E77">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c s="1" r="F77">
-        <v>31205.0</v>
+        <v>582.0</v>
       </c>
       <c s="1" r="G77">
         <v>0.0</v>
@@ -2799,19 +2820,19 @@
         <v>2013.0</v>
       </c>
       <c s="1" r="B78">
-        <v>234137.0</v>
+        <v>234173.0</v>
       </c>
       <c t="s" s="1" r="C78">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c s="1" r="D78">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E78">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c s="1" r="F78">
-        <v>582.0</v>
+        <v>1459.0</v>
       </c>
       <c s="1" r="G78">
         <v>0.0</v>
@@ -2828,19 +2849,19 @@
         <v>2013.0</v>
       </c>
       <c s="1" r="B79">
-        <v>234173.0</v>
+        <v>233949.0</v>
       </c>
       <c t="s" s="1" r="C79">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c s="1" r="D79">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E79">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c s="1" r="F79">
-        <v>1459.0</v>
+        <v>8654.0</v>
       </c>
       <c s="1" r="G79">
         <v>0.0</v>
@@ -2857,19 +2878,19 @@
         <v>2013.0</v>
       </c>
       <c s="1" r="B80">
-        <v>233949.0</v>
+        <v>234207.0</v>
       </c>
       <c t="s" s="1" r="C80">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c s="1" r="D80">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E80">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c s="1" r="F80">
-        <v>8654.0</v>
+        <v>2277.0</v>
       </c>
       <c s="1" r="G80">
         <v>0.0</v>
@@ -2886,19 +2907,19 @@
         <v>2013.0</v>
       </c>
       <c s="1" r="B81">
-        <v>234207.0</v>
+        <v>234377.0</v>
       </c>
       <c t="s" s="1" r="C81">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c s="1" r="D81">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E81">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c s="1" r="F81">
-        <v>2277.0</v>
+        <v>3468.0</v>
       </c>
       <c s="1" r="G81">
         <v>0.0</v>
@@ -2907,35 +2928,6 @@
         <v>0.0</v>
       </c>
       <c s="1" r="I81">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="82">
-      <c s="1" r="A82">
-        <v>2013.0</v>
-      </c>
-      <c s="1" r="B82">
-        <v>234377.0</v>
-      </c>
-      <c t="s" s="1" r="C82">
-        <v>168</v>
-      </c>
-      <c s="1" r="D82">
-        <v>1.0</v>
-      </c>
-      <c t="s" s="1" r="E82">
-        <v>169</v>
-      </c>
-      <c s="1" r="F82">
-        <v>3468.0</v>
-      </c>
-      <c s="1" r="G82">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="H82">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="I82">
         <v>0.0</v>
       </c>
     </row>
